--- a/biology/Médecine/Aphte/Aphte.xlsx
+++ b/biology/Médecine/Aphte/Aphte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un aphte (du grec ancien ἄφθη / áphthê, de ἄπτω / áptô, brûler) est un ulcère superficiel douloureux de la muqueuse buccale ou d'un autre organe. Il est parfois « bipolaire » (oro-génital). Au niveau de la muqueuse buccale, il se forme la plupart du temps sur l'intérieur des lèvres et des joues, la langue, le palais, les gencives ou la gorge.
 Les aphtes apparaissent le plus souvent chez un sujet apparemment « sain », de façon isolée. Ils sont parfois précédés d’une sensation de cuisson, et guérissent spontanément. Caractérisés par une forme arrondie ou ovale sur un fond jaune cerné d’un halo rouge inflammatoire, non indurés.
@@ -515,13 +527,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les aphtes revenant périodiquement sont dits « récidivants » ; ils sont le symptôme d'une stomatite aphteuse récidivante.[citation nécessaire]
 Les stomatites aphteuses ou aphtoses sont généralement classées selon trois formes :
 Mineure : de loin le plus fréquent, où les ulcérations sont limitées en taille (&lt; 10 mm), en nombre (&lt; de 10), et guérissent rapidement sans séquelle (&lt; de 10 jours) ;
 Miliaire : les ulcérations sont petites (1-2 mm), très nombreuses (jusqu’à 100), et surtout très douloureuses mais là encore guérissant rapidement sans séquelles  ;
-Majeure : appelé aphte géant (jusqu’à 5 cm), handicapant pour l’alimentation et la locution, durable (jusqu’à 3 mois), et laissant des cicatrices fibreuses rétractiles et parfois mutilantes (aphtes nécrotiques de Sutton)[1]. Il est situé dans la région du palais postérieur ou en avant du pharynx. Il est plus grave, plus douloureux car plus profond et associé à une nécrose des tissus. Une surinfection est possible (bactérienne ou fongique), difficile à traiter en cas d'immunodéficience (VIH, sida…).</t>
+Majeure : appelé aphte géant (jusqu’à 5 cm), handicapant pour l’alimentation et la locution, durable (jusqu’à 3 mois), et laissant des cicatrices fibreuses rétractiles et parfois mutilantes (aphtes nécrotiques de Sutton). Il est situé dans la région du palais postérieur ou en avant du pharynx. Il est plus grave, plus douloureux car plus profond et associé à une nécrose des tissus. Une surinfection est possible (bactérienne ou fongique), difficile à traiter en cas d'immunodéficience (VIH, sida…).</t>
         </is>
       </c>
     </row>
@@ -549,10 +563,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses études épidémiologiques ont montré que les aphtes touchent toutes les populations (15 % à 30 % des populations touchées en moyenne[2]), mais avec des différences de prévalences importantes.
-Les femmes sont plus touchées que les hommes[2] avec des crises plus fréquentes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses études épidémiologiques ont montré que les aphtes touchent toutes les populations (15 % à 30 % des populations touchées en moyenne), mais avec des différences de prévalences importantes.
+Les femmes sont plus touchées que les hommes avec des crises plus fréquentes.
 Les aphtes touchent surtout les personnes de moins de 45 ans, avec un pic de fréquence pour la tranche 16-25 ans.
 </t>
         </is>
@@ -582,11 +598,13 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces lésions sont fréquentes et d'étiologie inconnue. On ignore à ce jour si les aphtes sont le symptôme d'une seule ou de plusieurs affections[3]. Il est probable qu'il y ait des facteurs génétiques à l'origine au moins de certains aphtes[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces lésions sont fréquentes et d'étiologie inconnue. On ignore à ce jour si les aphtes sont le symptôme d'une seule ou de plusieurs affections. Il est probable qu'il y ait des facteurs génétiques à l'origine au moins de certains aphtes.
 Leur survenue peut être liée à des facteurs nutritionnels, psychologiques (spécialement le stress, la fatigue accumulée) ou hygiéniques (lavage des dents négligé, vaisselle mal nettoyée...)[réf. nécessaire]. La consommation de tomate cuite, de noix, de noisettes, d'amandes, d'emmental, de bananes, d'agrumes et fruits acides (kiwi, ananas...), de chocolat, et de tous les aliments allergènes favorise leur apparition[réf. nécessaire].
-L'utilisation prolongée d'antiseptiques locaux, comme les pastilles pour la gorge, ou d'un dentifrice contenant du laurylsulfate de sodium[5] peut aussi provoquer chez certaines personnes l'apparition d'aphtes, probablement à la suite d'un déséquilibre de la flore buccale.
+L'utilisation prolongée d'antiseptiques locaux, comme les pastilles pour la gorge, ou d'un dentifrice contenant du laurylsulfate de sodium peut aussi provoquer chez certaines personnes l'apparition d'aphtes, probablement à la suite d'un déséquilibre de la flore buccale.
 </t>
         </is>
       </c>
@@ -615,10 +633,12 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La guérison est spontanée en 8 à 10 jours dans des conditions d'hygiène normale, traités par des antiseptiques locaux. Si un aphte n'a pas disparu deux semaines après son apparition ou si d'autres sont apparus entre-temps, la consultation d'un praticien est fortement conseillée.
-Il existe de nombreux traitements traditionnels, dont ceux basés sur le vinaigre en bain de bouche[6],[7].
+Il existe de nombreux traitements traditionnels, dont ceux basés sur le vinaigre en bain de bouche,.
 </t>
         </is>
       </c>
@@ -647,9 +667,11 @@
           <t>Contextes d'apparitions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation des aphtes pourrait être favorisée par[8] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation des aphtes pourrait être favorisée par :
 des blessures légères à l'intérieur de la bouche ;
 la fatigue et le stress ;
 certaines allergies ;
